--- a/data/trans_dic/P16_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P16_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con salud autopercibida regular o mala</t>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,94%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3,23%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,76%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,45%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>0,93%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>9,77%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>10,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>9,76%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>5,41%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>2,72%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>12,58%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>8,35%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>6,52%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>3,38%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>2,7%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,53%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>6,84%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>4,42%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>9,92%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 6,92</t>
+          <t>1,58; 7,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,89; 7,96</t>
+          <t>0,77; 7,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,28</t>
+          <t>0,55; 5,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,92</t>
+          <t>0,67; 6,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,25</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 15,9</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 6,65</t>
+          <t>4,7; 21,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,39</t>
+          <t>6,11; 15,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 6,94</t>
+          <t>0,69; 7,82</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,25; 15,22</t>
+          <t>2,77; 9,36</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 9,96</t>
+          <t>1,0; 6,16</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,86</t>
+          <t>7,5; 20,07</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,51</t>
+          <t>4,34; 14,7</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,07</t>
+          <t>4,66; 14,99</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 7,52</t>
+          <t>4,13; 9,66</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 6,01</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>2,02; 6,09</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1,07; 4,87</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 11,37</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 7,5</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>6,15; 16,76</t>
         </is>
       </c>
     </row>
@@ -855,72 +964,102 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>7,75%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11,14%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11,17%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16,15%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>7,98%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>11,17%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,99%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>4,86%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>8,35%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,16%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>16,64%</t>
+          <t>8,47%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>14,36%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>19,62%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
           <t>7,15%</t>
         </is>
       </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,44%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>5,66%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>8,53%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>3,49%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>5,74%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
         <is>
           <t>13,83%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>17,83%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 12,11</t>
+          <t>3,48; 11,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,25</t>
+          <t>0,59; 5,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,51</t>
+          <t>1,42; 6,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,63; 12,36</t>
+          <t>4,62; 12,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,96; 18,01</t>
+          <t>4,87; 25,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,46</t>
+          <t>6,72; 19,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,14; 10,12</t>
+          <t>8,88; 26,81</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,34; 12,69</t>
+          <t>4,85; 12,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,54; 13,84</t>
+          <t>2,21; 9,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 22,84</t>
+          <t>5,2; 12,76</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 10,55</t>
+          <t>5,54; 14,61</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 5,86</t>
+          <t>9,55; 20,79</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>3,77; 8,15</t>
+          <t>11,28; 23,39</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,68</t>
+          <t>14,27; 26,37</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>9,94; 18,73</t>
+          <t>4,78; 10,33</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 6,16</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 8,37</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 11,85</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 20,71</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 18,4</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>12,81; 23,99</t>
         </is>
       </c>
     </row>
@@ -1025,72 +1194,102 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,93%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,72%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>13,39%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>13,65%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>10,97%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>7,31%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>10,63%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>10,86%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,92%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>19,45%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>21,06%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>9,35%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,81%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>7,75%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>13,41%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>7,3%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>7,87%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>13,53%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>15,72%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
         <is>
           <t>16,39%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>18,56%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,54</t>
+          <t>4,84; 11,38</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 10,01</t>
+          <t>4,28; 10,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 7,69</t>
+          <t>2,77; 7,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,63; 18,05</t>
+          <t>6,71; 18,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,98; 19,16</t>
+          <t>9,17; 19,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,77; 14,7</t>
+          <t>9,35; 18,66</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,89; 11,24</t>
+          <t>10,67; 24,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 14,42</t>
+          <t>7,96; 15,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>12,62; 20,39</t>
+          <t>5,09; 11,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 25,11</t>
+          <t>7,98; 14,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 11,94</t>
+          <t>12,73; 20,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,37</t>
+          <t>14,1; 22,37</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 10,12</t>
+          <t>14,75; 24,87</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>10,65; 17,13</t>
+          <t>15,88; 26,41</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>13,1; 20,18</t>
+          <t>7,26; 12,13</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>5,34; 9,83</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>6,05; 10,27</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 17,35</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>12,49; 19,23</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>13,02; 20,18</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 23,51</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,36%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,77%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,75%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,82%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>30,94%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>33,66%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>19,9%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>17,83%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>20,31%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>27,44%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>20,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>27,74%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>30,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>34,39%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>35,13%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>16,31%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>13,32%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>16,61%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>20,09%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>13,75%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>16,88%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>20,34%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>32,57%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>34,37%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,56; 19,73</t>
+          <t>8,46; 19,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,15</t>
+          <t>5,71; 12,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,94</t>
+          <t>9,3; 18,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,02; 16,06</t>
+          <t>9,29; 16,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,53; 38,33</t>
+          <t>14,3; 24,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 24,55</t>
+          <t>24,15; 38,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,79; 22,21</t>
+          <t>26,96; 40,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,3; 24,73</t>
+          <t>15,81; 24,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 32,01</t>
+          <t>14,09; 22,85</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>28,5; 40,67</t>
+          <t>16,28; 25,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>13,59; 20,4</t>
+          <t>23,12; 32,45</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,74; 16,6</t>
+          <t>26,01; 36,45</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,85</t>
+          <t>28,03; 41,0</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>17,12; 23,17</t>
+          <t>29,26; 41,57</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>28,23; 37,73</t>
+          <t>13,34; 20,39</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>11,07; 17,1</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>14,01; 20,27</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>17,65; 23,66</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>21,36; 29,07</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>27,65; 37,6</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>29,77; 38,21</t>
         </is>
       </c>
     </row>
@@ -1365,72 +1654,102 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>19,15%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,33%</t>
+          <t>19,74%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>25,07%</t>
+          <t>25,27%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>44,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>44,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>29,63%</t>
+          <t>25,5%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>35,08%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
+          <t>29,72%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>35,01%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>43,03%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
           <t>52,48%</t>
         </is>
       </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>51,58%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>21,44%</t>
         </is>
       </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>22,76%</t>
-        </is>
-      </c>
-      <c r="O12" s="2" t="inlineStr">
-        <is>
-          <t>24,5%</t>
-        </is>
-      </c>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>30,17%</t>
-        </is>
-      </c>
-      <c r="Q12" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>22,66%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>24,75%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>37,56%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
         <is>
           <t>48,87%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>48,04%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,01; 25,57</t>
+          <t>12,5; 25,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,16; 26,43</t>
+          <t>13,67; 27,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,65; 26,07</t>
+          <t>14,67; 26,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,22; 31,89</t>
+          <t>19,68; 32,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,5; 52,85</t>
+          <t>24,83; 39,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>20,48; 31,69</t>
+          <t>37,04; 52,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,78; 33,23</t>
+          <t>37,39; 51,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>23,97; 35,55</t>
+          <t>19,66; 31,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>28,66; 41,26</t>
+          <t>20,69; 32,24</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>46,08; 59,29</t>
+          <t>24,31; 35,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,87; 26,74</t>
+          <t>29,4; 40,52</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>18,54; 27,8</t>
+          <t>35,7; 50,16</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>20,52; 28,35</t>
+          <t>46,29; 60,27</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>26,08; 34,71</t>
+          <t>44,19; 58,91</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>43,67; 54,07</t>
+          <t>17,71; 26,37</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>18,39; 27,73</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 28,99</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>26,28; 35,07</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>32,5; 42,67</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>43,53; 53,56</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>42,79; 53,06</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,32%</t>
+          <t>26,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>30,38%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,73%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>29,43%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>44,41%</t>
+          <t>32,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>39,34%</t>
+          <t>44,4%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,93%</t>
+          <t>41,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>38,58%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>48,05%</t>
+          <t>42,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>39,88%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>46,68%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>58,69%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>37,34%</t>
+          <t>40,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>39,95%</t>
+          <t>61,85%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
+          <t>33,75%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>37,6%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>37,49%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>38,91%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>47,15%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
           <t>41,96%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>53,3%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,16; 34,07</t>
+          <t>20,49; 33,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>22,64; 40,69</t>
+          <t>22,95; 40,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,88; 45,06</t>
+          <t>26,73; 42,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,89; 37,9</t>
+          <t>22,47; 36,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>36,96; 53,27</t>
+          <t>24,16; 40,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>34,21; 45,57</t>
+          <t>36,4; 52,96</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>34,79; 49,46</t>
+          <t>32,66; 49,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>31,87; 44,64</t>
+          <t>33,67; 45,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>40,63; 58,2</t>
+          <t>36,43; 50,52</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,74; 49,0</t>
+          <t>34,04; 46,32</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,66; 38,32</t>
+          <t>39,51; 54,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>31,88; 42,58</t>
+          <t>49,71; 66,59</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>32,22; 42,83</t>
+          <t>30,52; 49,63</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>34,81; 47,41</t>
+          <t>53,3; 70,02</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>35,96; 48,22</t>
+          <t>29,29; 38,38</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>32,43; 42,74</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>32,45; 42,46</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>33,08; 44,26</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>40,91; 53,89</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>36,17; 48,68</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>47,35; 58,98</t>
         </is>
       </c>
     </row>
@@ -1705,72 +2114,102 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,47%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,29%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>18,09%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>24,19%</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>19,88%</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,82%</t>
+          <t>26,79%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>19,3%</t>
+          <t>19,87%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,88%</t>
+          <t>19,77%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
+          <t>23,92%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>31,0%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>35,02%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>16,09%</t>
         </is>
       </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>14,59%</t>
-        </is>
-      </c>
-      <c r="O16" s="2" t="inlineStr">
-        <is>
-          <t>15,93%</t>
-        </is>
-      </c>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="Q16" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>16,12%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>24,69%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
         <is>
           <t>27,04%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>30,91%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,28; 14,4</t>
+          <t>10,1; 14,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,07</t>
+          <t>9,62; 14,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,48; 14,78</t>
+          <t>10,42; 14,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,74</t>
+          <t>12,05; 16,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>21,34; 27,0</t>
+          <t>15,66; 21,05</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,91; 21,99</t>
+          <t>21,54; 27,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,76; 20,2</t>
+          <t>24,03; 30,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,43; 21,17</t>
+          <t>17,87; 22,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,94; 27,55</t>
+          <t>16,12; 20,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>27,06; 32,78</t>
+          <t>17,78; 21,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14,71; 17,67</t>
+          <t>21,67; 26,38</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,25; 16,35</t>
+          <t>28,12; 34,2</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>14,54; 17,54</t>
+          <t>27,14; 33,34</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>17,67; 21,32</t>
+          <t>32,12; 37,77</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>25,0; 29,0</t>
+          <t>14,58; 17,41</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>13,44; 16,54</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>14,76; 17,71</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>17,59; 20,74</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>22,84; 26,84</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>25,06; 29,19</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 33,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con salud autopercibida regular o mala (tasa de respuesta: 99,94%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18451</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16332</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>9248</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11934</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4983</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>4821</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45197</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>12197</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27865</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13995</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>59691</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3124</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>3375</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>63648</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>28529</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>37113</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>25929</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>64674</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>3514</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>8196</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8125; 39634</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3883; 37805</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2859; 27137</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>3410; 32677</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0; 25053</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0; 1948</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>2071; 9554</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>28298; 71718</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3255; 36681</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14253; 48172</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>5120; 31682</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>35571; 95179</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>1623; 5496</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1796; 5779</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>40260; 94224</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>11404; 58317</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>21020; 63254</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11005; 49882</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>39521; 107548</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>1849; 5961</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>5083; 13849</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>35931</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12364</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>18625</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>46040</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>64608</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5572</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>7916</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41427</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25791</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>43022</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>48216</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>72153</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>7859</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9025</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>77358</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>38154</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>61647</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>94256</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>136761</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>13430</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>16940</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>19606; 66638</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3367; 31237</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8046; 35081</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>27461; 74277</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>28246; 147555</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3349; 9478</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>4353; 13136</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>25185; 63697</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11479; 50808</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26407; 64812</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>28654; 75598</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>47973; 104478</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>5325; 11044</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>6564; 12132</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>51706; 111852</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>19905; 67274</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>40991; 89899</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>65645; 131736</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>87284; 224225</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>9741; 17860</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>12171; 22788</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>51996</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>47540</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32108</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>72154</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>90886</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8217</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9914</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>76150</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>54574</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>78050</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>116188</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>128594</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10485</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>11550</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>128145</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>102114</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>110158</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>188342</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>219480</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>18703</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>21464</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>32695; 76929</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>29411; 73715</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>18826; 53923</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>45602; 126718</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62218; 129369</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>5627; 11234</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6486; 14735</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55270; 105243</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36271; 81122</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57315; 103392</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>90657; 143249</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>101146; 160480</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>7954; 13410</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8713; 14489</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>99498; 166165</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>74758; 137519</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>84615; 143630</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>151968; 241451</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>174415; 268539</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>14864; 23033</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>16911; 27177</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>110.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>78950</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>57335</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>83030</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>81455</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>123421</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>18030</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>19172</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>139527</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>125660</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>139328</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>182069</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>204361</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>18029</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>18797</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>218478</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>182995</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>222358</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>263524</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>327782</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>36059</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>37969</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>53993; 126280</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>36807; 81922</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>60061; 121686</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>59347; 106500</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>93795; 159280</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>14074; 22701</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>15358; 23158</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>110814; 168692</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>96609; 156648</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>109367; 171213</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>151703; 212950</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>172035; 241084</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>14694; 21493</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>15659; 22246</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>178672; 273074</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>147260; 227530</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>184584; 267092</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>228591; 306445</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>281316; 382977</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>30607; 41623</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>32891; 42207</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>124.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>89407</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>94726</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>98696</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>124721</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>156894</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>19979</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>20021</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>128101</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>132239</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>149548</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>180328</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>222424</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>25595</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>24052</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>217509</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>226965</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>248245</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>305049</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>379318</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>45575</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>44073</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>63989; 129663</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>67327; 133586</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>73330; 132189</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>97126; 160623</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>122402; 193277</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16477; 23445</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>16870; 23144</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>98764; 157476</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>105335; 164118</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>122297; 179555</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>151473; 208714</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>184564; 259306</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>22576; 29396</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>20608; 27471</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>179608; 267450</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>184216; 277833</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>209502; 290849</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>265034; 353763</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>328190; 430886</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>40592; 49951</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>39259; 48685</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>154.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>143903</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>166857</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>181905</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>153796</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>182362</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>20796</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>18993</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>286738</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>304826</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>275051</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>320905</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>431096</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>25593</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>39382</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>430641</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>471683</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>456956</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>474700</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>613458</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>46389</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>58375</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>112028; 184564</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>125136; 220368</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>141443; 226583</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>119653; 196421</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>136827; 229694</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>17048; 24807</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>14973; 22636</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>245468; 333479</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>258429; 358360</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>234775; 319538</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>271607; 376633</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>365124; 489168</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>19448; 31628</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>33937; 44585</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>373637; 489632</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>406793; 536191</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>395609; 517564</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>403480; 539952</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>532219; 701094</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>39986; 53822</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>51856; 64595</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>168.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>258.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>319.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>384.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>354.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>330.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>382.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>465.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>357.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>487.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>581.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>546.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>640.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>418638</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>395154</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>423612</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>490099</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>623154</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>72984</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>80836</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>717140</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>655285</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>712864</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>861701</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1118318</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>90686</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>106180</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1135778</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1050440</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>1136477</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>1351800</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>1741473</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>163670</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>187017</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>348304; 501014</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>331339; 485103</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>359037; 498771</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>415776; 573450</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>539412; 725098</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>65003; 81824</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>72512; 91038</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>644884; 794853</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>580983; 745249</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>641261; 788239</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>780586; 950251</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1014346; 1233671</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>82351; 101172</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>97391; 114531</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>1028977; 1228744</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>947468; 1165929</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>1040863; 1248581</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>1240429; 1462493</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>1610855; 1892672</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>151684; 176644</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>173918; 199942</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>